--- a/INTLINE/data/144/SCB/NR0103ENS2010T07Kv.xlsx
+++ b/INTLINE/data/144/SCB/NR0103ENS2010T07Kv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <x:si>
     <x:t>Gross fixed capital formation (ESA2010) by industrial classification NACE Rev. 2, observations and quarter</x:t>
   </x:si>
@@ -523,6 +523,9 @@
     <x:t>2021K4</x:t>
   </x:si>
   <x:si>
+    <x:t>2022K1</x:t>
+  </x:si>
+  <x:si>
     <x:t>F41-F43 construction</x:t>
   </x:si>
   <x:si>
@@ -532,7 +535,7 @@
     <x:t>..</x:t>
   </x:si>
   <x:si>
-    <x:t>Constant prices referece year 2020, SEK million</x:t>
+    <x:t>Constant prices referece year 2021, SEK million</x:t>
   </x:si>
   <x:si>
     <x:t>The Church of Sweden is reclassified in the year 2000 from the municipal sector to sector NPISH. Before year 2000 the church of Sweden is included in Municipalities and Federations of local government authorities.</x:t>
@@ -550,10 +553,10 @@
     <x:t>Current prices, SEK million:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220228 08:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Constant prices referece year 2020, SEK million:</x:t>
+    <x:t>20220530 08:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Constant prices referece year 2021, SEK million:</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -574,7 +577,7 @@
     <x:t>nrinfo@scb.se</x:t>
   </x:si>
   <x:si>
-    <x:t>(SCB) Statistikservice, Statistics Sweden</x:t>
+    <x:t xml:space="preserve"> Statistikservice, Statistics Sweden</x:t>
   </x:si>
   <x:si>
     <x:t>information@scb.se</x:t>
@@ -1013,21 +1016,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FN64"/>
+  <x:dimension ref="A1:FO64"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="170" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="171" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:170">
+    <x:row r="1" spans="1:171">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:170">
+    <x:row r="3" spans="1:171">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1532,169 +1535,172 @@
       <x:c r="FN3" s="2" t="s">
         <x:v>168</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:170">
+      <x:c r="FO3" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:171">
       <x:c r="A4" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="H4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="J4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="K4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="L4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="M4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="N4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="O4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="P4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="Q4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="R4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="S4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="T4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="U4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="V4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="W4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="X4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="Y4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="Z4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AA4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AB4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AC4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AD4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AE4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AF4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AG4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AH4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AI4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AJ4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AK4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AL4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AM4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AN4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AO4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AP4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AQ4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AR4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AS4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AT4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AU4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AV4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AW4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AX4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AY4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AZ4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="BA4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="BB4" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="BC4" s="4" t="n">
         <x:v>1171</x:v>
@@ -2021,754 +2027,760 @@
         <x:v>6869</x:v>
       </x:c>
       <x:c r="FG4" s="4" t="n">
-        <x:v>8733</x:v>
+        <x:v>9448</x:v>
       </x:c>
       <x:c r="FH4" s="4" t="n">
-        <x:v>6765</x:v>
+        <x:v>7240</x:v>
       </x:c>
       <x:c r="FI4" s="4" t="n">
-        <x:v>6761</x:v>
+        <x:v>7230</x:v>
       </x:c>
       <x:c r="FJ4" s="4" t="n">
-        <x:v>6005</x:v>
+        <x:v>6517</x:v>
       </x:c>
       <x:c r="FK4" s="4" t="n">
-        <x:v>9021</x:v>
+        <x:v>9973</x:v>
       </x:c>
       <x:c r="FL4" s="4" t="n">
-        <x:v>8400</x:v>
+        <x:v>8958</x:v>
       </x:c>
       <x:c r="FM4" s="4" t="n">
-        <x:v>7074</x:v>
+        <x:v>7436</x:v>
       </x:c>
       <x:c r="FN4" s="4" t="n">
-        <x:v>7234</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:170">
+        <x:v>7815</x:v>
+      </x:c>
+      <x:c r="FO4" s="4" t="n">
+        <x:v>7951</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:171">
       <x:c r="B5" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="P5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="Q5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="R5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="S5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="T5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="U5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="V5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="W5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="X5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="Y5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="Z5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AA5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AB5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AC5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AD5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AE5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AF5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AG5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AH5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AI5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AJ5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AK5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AL5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AM5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AN5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AO5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AP5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AQ5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AR5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AS5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AT5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AU5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AV5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AW5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AX5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AY5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AZ5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="BA5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="BB5" s="3" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="BC5" s="4" t="n">
+        <x:v>1889</x:v>
+      </x:c>
+      <x:c r="BD5" s="4" t="n">
+        <x:v>1917</x:v>
+      </x:c>
+      <x:c r="BE5" s="4" t="n">
+        <x:v>1802</x:v>
+      </x:c>
+      <x:c r="BF5" s="4" t="n">
+        <x:v>1977</x:v>
+      </x:c>
+      <x:c r="BG5" s="4" t="n">
+        <x:v>2121</x:v>
+      </x:c>
+      <x:c r="BH5" s="4" t="n">
+        <x:v>2178</x:v>
+      </x:c>
+      <x:c r="BI5" s="4" t="n">
+        <x:v>1957</x:v>
+      </x:c>
+      <x:c r="BJ5" s="4" t="n">
+        <x:v>2240</x:v>
+      </x:c>
+      <x:c r="BK5" s="4" t="n">
+        <x:v>1925</x:v>
+      </x:c>
+      <x:c r="BL5" s="4" t="n">
+        <x:v>2110</x:v>
+      </x:c>
+      <x:c r="BM5" s="4" t="n">
+        <x:v>1901</x:v>
+      </x:c>
+      <x:c r="BN5" s="4" t="n">
+        <x:v>2287</x:v>
+      </x:c>
+      <x:c r="BO5" s="4" t="n">
+        <x:v>2519</x:v>
+      </x:c>
+      <x:c r="BP5" s="4" t="n">
+        <x:v>2684</x:v>
+      </x:c>
+      <x:c r="BQ5" s="4" t="n">
+        <x:v>2376</x:v>
+      </x:c>
+      <x:c r="BR5" s="4" t="n">
+        <x:v>2629</x:v>
+      </x:c>
+      <x:c r="BS5" s="4" t="n">
+        <x:v>3038</x:v>
+      </x:c>
+      <x:c r="BT5" s="4" t="n">
+        <x:v>3556</x:v>
+      </x:c>
+      <x:c r="BU5" s="4" t="n">
+        <x:v>2396</x:v>
+      </x:c>
+      <x:c r="BV5" s="4" t="n">
+        <x:v>3000</x:v>
+      </x:c>
+      <x:c r="BW5" s="4" t="n">
+        <x:v>3159</x:v>
+      </x:c>
+      <x:c r="BX5" s="4" t="n">
+        <x:v>3651</x:v>
+      </x:c>
+      <x:c r="BY5" s="4" t="n">
+        <x:v>3468</x:v>
+      </x:c>
+      <x:c r="BZ5" s="4" t="n">
+        <x:v>4008</x:v>
+      </x:c>
+      <x:c r="CA5" s="4" t="n">
+        <x:v>4673</x:v>
+      </x:c>
+      <x:c r="CB5" s="4" t="n">
+        <x:v>4749</x:v>
+      </x:c>
+      <x:c r="CC5" s="4" t="n">
+        <x:v>4621</x:v>
+      </x:c>
+      <x:c r="CD5" s="4" t="n">
+        <x:v>4240</x:v>
+      </x:c>
+      <x:c r="CE5" s="4" t="n">
+        <x:v>4632</x:v>
+      </x:c>
+      <x:c r="CF5" s="4" t="n">
+        <x:v>5339</x:v>
+      </x:c>
+      <x:c r="CG5" s="4" t="n">
+        <x:v>4451</x:v>
+      </x:c>
+      <x:c r="CH5" s="4" t="n">
+        <x:v>4249</x:v>
+      </x:c>
+      <x:c r="CI5" s="4" t="n">
+        <x:v>4503</x:v>
+      </x:c>
+      <x:c r="CJ5" s="4" t="n">
+        <x:v>4952</x:v>
+      </x:c>
+      <x:c r="CK5" s="4" t="n">
+        <x:v>3692</x:v>
+      </x:c>
+      <x:c r="CL5" s="4" t="n">
+        <x:v>3430</x:v>
+      </x:c>
+      <x:c r="CM5" s="4" t="n">
+        <x:v>4095</x:v>
+      </x:c>
+      <x:c r="CN5" s="4" t="n">
+        <x:v>4732</x:v>
+      </x:c>
+      <x:c r="CO5" s="4" t="n">
+        <x:v>3949</x:v>
+      </x:c>
+      <x:c r="CP5" s="4" t="n">
+        <x:v>3731</x:v>
+      </x:c>
+      <x:c r="CQ5" s="4" t="n">
+        <x:v>5345</x:v>
+      </x:c>
+      <x:c r="CR5" s="4" t="n">
+        <x:v>5036</x:v>
+      </x:c>
+      <x:c r="CS5" s="4" t="n">
+        <x:v>4231</x:v>
+      </x:c>
+      <x:c r="CT5" s="4" t="n">
+        <x:v>3902</x:v>
+      </x:c>
+      <x:c r="CU5" s="4" t="n">
+        <x:v>4500</x:v>
+      </x:c>
+      <x:c r="CV5" s="4" t="n">
+        <x:v>4666</x:v>
+      </x:c>
+      <x:c r="CW5" s="4" t="n">
+        <x:v>3955</x:v>
+      </x:c>
+      <x:c r="CX5" s="4" t="n">
+        <x:v>4330</x:v>
+      </x:c>
+      <x:c r="CY5" s="4" t="n">
+        <x:v>4966</x:v>
+      </x:c>
+      <x:c r="CZ5" s="4" t="n">
+        <x:v>5177</x:v>
+      </x:c>
+      <x:c r="DA5" s="4" t="n">
+        <x:v>4336</x:v>
+      </x:c>
+      <x:c r="DB5" s="4" t="n">
+        <x:v>4712</x:v>
+      </x:c>
+      <x:c r="DC5" s="4" t="n">
+        <x:v>5554</x:v>
+      </x:c>
+      <x:c r="DD5" s="4" t="n">
+        <x:v>5961</x:v>
+      </x:c>
+      <x:c r="DE5" s="4" t="n">
+        <x:v>5812</x:v>
+      </x:c>
+      <x:c r="DF5" s="4" t="n">
+        <x:v>5696</x:v>
+      </x:c>
+      <x:c r="DG5" s="4" t="n">
+        <x:v>7386</x:v>
+      </x:c>
+      <x:c r="DH5" s="4" t="n">
+        <x:v>5767</x:v>
+      </x:c>
+      <x:c r="DI5" s="4" t="n">
+        <x:v>6001</x:v>
+      </x:c>
+      <x:c r="DJ5" s="4" t="n">
+        <x:v>5713</x:v>
+      </x:c>
+      <x:c r="DK5" s="4" t="n">
+        <x:v>9752</x:v>
+      </x:c>
+      <x:c r="DL5" s="4" t="n">
+        <x:v>7780</x:v>
+      </x:c>
+      <x:c r="DM5" s="4" t="n">
+        <x:v>7661</x:v>
+      </x:c>
+      <x:c r="DN5" s="4" t="n">
+        <x:v>6161</x:v>
+      </x:c>
+      <x:c r="DO5" s="4" t="n">
+        <x:v>5334</x:v>
+      </x:c>
+      <x:c r="DP5" s="4" t="n">
+        <x:v>5272</x:v>
+      </x:c>
+      <x:c r="DQ5" s="4" t="n">
+        <x:v>5783</x:v>
+      </x:c>
+      <x:c r="DR5" s="4" t="n">
+        <x:v>5363</x:v>
+      </x:c>
+      <x:c r="DS5" s="4" t="n">
+        <x:v>6604</x:v>
+      </x:c>
+      <x:c r="DT5" s="4" t="n">
+        <x:v>7333</x:v>
+      </x:c>
+      <x:c r="DU5" s="4" t="n">
+        <x:v>6969</x:v>
+      </x:c>
+      <x:c r="DV5" s="4" t="n">
+        <x:v>6754</x:v>
+      </x:c>
+      <x:c r="DW5" s="4" t="n">
+        <x:v>7670</x:v>
+      </x:c>
+      <x:c r="DX5" s="4" t="n">
+        <x:v>7743</x:v>
+      </x:c>
+      <x:c r="DY5" s="4" t="n">
+        <x:v>7449</x:v>
+      </x:c>
+      <x:c r="DZ5" s="4" t="n">
+        <x:v>7244</x:v>
+      </x:c>
+      <x:c r="EA5" s="4" t="n">
+        <x:v>7548</x:v>
+      </x:c>
+      <x:c r="EB5" s="4" t="n">
+        <x:v>7808</x:v>
+      </x:c>
+      <x:c r="EC5" s="4" t="n">
+        <x:v>6957</x:v>
+      </x:c>
+      <x:c r="ED5" s="4" t="n">
+        <x:v>6659</x:v>
+      </x:c>
+      <x:c r="EE5" s="4" t="n">
+        <x:v>7825</x:v>
+      </x:c>
+      <x:c r="EF5" s="4" t="n">
+        <x:v>6806</x:v>
+      </x:c>
+      <x:c r="EG5" s="4" t="n">
+        <x:v>7037</x:v>
+      </x:c>
+      <x:c r="EH5" s="4" t="n">
+        <x:v>7017</x:v>
+      </x:c>
+      <x:c r="EI5" s="4" t="n">
+        <x:v>6575</x:v>
+      </x:c>
+      <x:c r="EJ5" s="4" t="n">
+        <x:v>6991</x:v>
+      </x:c>
+      <x:c r="EK5" s="4" t="n">
+        <x:v>6304</x:v>
+      </x:c>
+      <x:c r="EL5" s="4" t="n">
+        <x:v>5894</x:v>
+      </x:c>
+      <x:c r="EM5" s="4" t="n">
+        <x:v>8745</x:v>
+      </x:c>
+      <x:c r="EN5" s="4" t="n">
+        <x:v>7298</x:v>
+      </x:c>
+      <x:c r="EO5" s="4" t="n">
+        <x:v>6888</x:v>
+      </x:c>
+      <x:c r="EP5" s="4" t="n">
+        <x:v>6710</x:v>
+      </x:c>
+      <x:c r="EQ5" s="4" t="n">
+        <x:v>8682</x:v>
+      </x:c>
+      <x:c r="ER5" s="4" t="n">
+        <x:v>9155</x:v>
+      </x:c>
+      <x:c r="ES5" s="4" t="n">
+        <x:v>8291</x:v>
+      </x:c>
+      <x:c r="ET5" s="4" t="n">
+        <x:v>7359</x:v>
+      </x:c>
+      <x:c r="EU5" s="4" t="n">
+        <x:v>11052</x:v>
+      </x:c>
+      <x:c r="EV5" s="4" t="n">
+        <x:v>8632</x:v>
+      </x:c>
+      <x:c r="EW5" s="4" t="n">
+        <x:v>7694</x:v>
+      </x:c>
+      <x:c r="EX5" s="4" t="n">
+        <x:v>6729</x:v>
+      </x:c>
+      <x:c r="EY5" s="4" t="n">
+        <x:v>10301</x:v>
+      </x:c>
+      <x:c r="EZ5" s="4" t="n">
+        <x:v>9606</x:v>
+      </x:c>
+      <x:c r="FA5" s="4" t="n">
+        <x:v>7571</x:v>
+      </x:c>
+      <x:c r="FB5" s="4" t="n">
+        <x:v>7996</x:v>
+      </x:c>
+      <x:c r="FC5" s="4" t="n">
+        <x:v>8650</x:v>
+      </x:c>
+      <x:c r="FD5" s="4" t="n">
+        <x:v>8007</x:v>
+      </x:c>
+      <x:c r="FE5" s="4" t="n">
+        <x:v>6960</x:v>
+      </x:c>
+      <x:c r="FF5" s="4" t="n">
+        <x:v>6964</x:v>
+      </x:c>
+      <x:c r="FG5" s="4" t="n">
+        <x:v>9561</x:v>
+      </x:c>
+      <x:c r="FH5" s="4" t="n">
+        <x:v>7236</x:v>
+      </x:c>
+      <x:c r="FI5" s="4" t="n">
+        <x:v>7336</x:v>
+      </x:c>
+      <x:c r="FJ5" s="4" t="n">
+        <x:v>6618</x:v>
+      </x:c>
+      <x:c r="FK5" s="4" t="n">
+        <x:v>10176</x:v>
+      </x:c>
+      <x:c r="FL5" s="4" t="n">
+        <x:v>9039</x:v>
+      </x:c>
+      <x:c r="FM5" s="4" t="n">
+        <x:v>7334</x:v>
+      </x:c>
+      <x:c r="FN5" s="4" t="n">
+        <x:v>7633</x:v>
+      </x:c>
+      <x:c r="FO5" s="4" t="n">
+        <x:v>7464</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:171">
+      <x:c r="A7" s="5" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:171">
+      <x:c r="A8" s="5" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:171">
+      <x:c r="A9" s="5" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:171">
+      <x:c r="A11" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:171">
+      <x:c r="A12" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:171">
+      <x:c r="A13" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:171">
+      <x:c r="A14" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:171">
+      <x:c r="A15" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:171">
+      <x:c r="A17" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:171">
+      <x:c r="A18" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:171">
+      <x:c r="A20" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:171">
+      <x:c r="A21" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:171">
+      <x:c r="A22" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:171">
+      <x:c r="A23" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:171">
+      <x:c r="A24" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:171">
+      <x:c r="A26" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:171">
+      <x:c r="A27" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:171">
+      <x:c r="A28" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:171">
+      <x:c r="A33" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:171">
+      <x:c r="A34" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:171">
+      <x:c r="A35" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:171">
+      <x:c r="A36" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:171">
+      <x:c r="A37" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:171">
+      <x:c r="A38" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:171">
+      <x:c r="A39" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:171">
+      <x:c r="A40" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:171">
+      <x:c r="A41" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:171">
+      <x:c r="A42" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:171">
+      <x:c r="A44" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:171">
+      <x:c r="A45" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="K5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="Q5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="R5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="S5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="T5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="U5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="V5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="W5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="X5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="Y5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="Z5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AA5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AB5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AC5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AD5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AE5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AF5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AG5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AH5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AI5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AJ5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AK5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AL5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AM5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AN5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AO5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AP5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AQ5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AR5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AS5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AT5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AU5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AV5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AW5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AX5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AY5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="AZ5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="BA5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="BB5" s="3" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="BC5" s="4" t="n">
-        <x:v>1857</x:v>
-      </x:c>
-      <x:c r="BD5" s="4" t="n">
-        <x:v>1885</x:v>
-      </x:c>
-      <x:c r="BE5" s="4" t="n">
-        <x:v>1772</x:v>
-      </x:c>
-      <x:c r="BF5" s="4" t="n">
-        <x:v>1944</x:v>
-      </x:c>
-      <x:c r="BG5" s="4" t="n">
-        <x:v>2085</x:v>
-      </x:c>
-      <x:c r="BH5" s="4" t="n">
-        <x:v>2141</x:v>
-      </x:c>
-      <x:c r="BI5" s="4" t="n">
-        <x:v>1925</x:v>
-      </x:c>
-      <x:c r="BJ5" s="4" t="n">
-        <x:v>2203</x:v>
-      </x:c>
-      <x:c r="BK5" s="4" t="n">
-        <x:v>1893</x:v>
-      </x:c>
-      <x:c r="BL5" s="4" t="n">
-        <x:v>2075</x:v>
-      </x:c>
-      <x:c r="BM5" s="4" t="n">
-        <x:v>1869</x:v>
-      </x:c>
-      <x:c r="BN5" s="4" t="n">
-        <x:v>2248</x:v>
-      </x:c>
-      <x:c r="BO5" s="4" t="n">
-        <x:v>2477</x:v>
-      </x:c>
-      <x:c r="BP5" s="4" t="n">
-        <x:v>2639</x:v>
-      </x:c>
-      <x:c r="BQ5" s="4" t="n">
-        <x:v>2336</x:v>
-      </x:c>
-      <x:c r="BR5" s="4" t="n">
-        <x:v>2585</x:v>
-      </x:c>
-      <x:c r="BS5" s="4" t="n">
-        <x:v>2987</x:v>
-      </x:c>
-      <x:c r="BT5" s="4" t="n">
-        <x:v>3496</x:v>
-      </x:c>
-      <x:c r="BU5" s="4" t="n">
-        <x:v>2356</x:v>
-      </x:c>
-      <x:c r="BV5" s="4" t="n">
-        <x:v>2951</x:v>
-      </x:c>
-      <x:c r="BW5" s="4" t="n">
-        <x:v>3107</x:v>
-      </x:c>
-      <x:c r="BX5" s="4" t="n">
-        <x:v>3590</x:v>
-      </x:c>
-      <x:c r="BY5" s="4" t="n">
-        <x:v>3410</x:v>
-      </x:c>
-      <x:c r="BZ5" s="4" t="n">
-        <x:v>3940</x:v>
-      </x:c>
-      <x:c r="CA5" s="4" t="n">
-        <x:v>4595</x:v>
-      </x:c>
-      <x:c r="CB5" s="4" t="n">
-        <x:v>4669</x:v>
-      </x:c>
-      <x:c r="CC5" s="4" t="n">
-        <x:v>4544</x:v>
-      </x:c>
-      <x:c r="CD5" s="4" t="n">
-        <x:v>4169</x:v>
-      </x:c>
-      <x:c r="CE5" s="4" t="n">
-        <x:v>4554</x:v>
-      </x:c>
-      <x:c r="CF5" s="4" t="n">
-        <x:v>5250</x:v>
-      </x:c>
-      <x:c r="CG5" s="4" t="n">
-        <x:v>4376</x:v>
-      </x:c>
-      <x:c r="CH5" s="4" t="n">
-        <x:v>4178</x:v>
-      </x:c>
-      <x:c r="CI5" s="4" t="n">
-        <x:v>4427</x:v>
-      </x:c>
-      <x:c r="CJ5" s="4" t="n">
-        <x:v>4869</x:v>
-      </x:c>
-      <x:c r="CK5" s="4" t="n">
-        <x:v>3630</x:v>
-      </x:c>
-      <x:c r="CL5" s="4" t="n">
-        <x:v>3373</x:v>
-      </x:c>
-      <x:c r="CM5" s="4" t="n">
-        <x:v>4027</x:v>
-      </x:c>
-      <x:c r="CN5" s="4" t="n">
-        <x:v>4653</x:v>
-      </x:c>
-      <x:c r="CO5" s="4" t="n">
-        <x:v>3883</x:v>
-      </x:c>
-      <x:c r="CP5" s="4" t="n">
-        <x:v>3667</x:v>
-      </x:c>
-      <x:c r="CQ5" s="4" t="n">
-        <x:v>5255</x:v>
-      </x:c>
-      <x:c r="CR5" s="4" t="n">
-        <x:v>4951</x:v>
-      </x:c>
-      <x:c r="CS5" s="4" t="n">
-        <x:v>4160</x:v>
-      </x:c>
-      <x:c r="CT5" s="4" t="n">
-        <x:v>3838</x:v>
-      </x:c>
-      <x:c r="CU5" s="4" t="n">
-        <x:v>4424</x:v>
-      </x:c>
-      <x:c r="CV5" s="4" t="n">
-        <x:v>4587</x:v>
-      </x:c>
-      <x:c r="CW5" s="4" t="n">
-        <x:v>3889</x:v>
-      </x:c>
-      <x:c r="CX5" s="4" t="n">
-        <x:v>4259</x:v>
-      </x:c>
-      <x:c r="CY5" s="4" t="n">
-        <x:v>4883</x:v>
-      </x:c>
-      <x:c r="CZ5" s="4" t="n">
-        <x:v>5091</x:v>
-      </x:c>
-      <x:c r="DA5" s="4" t="n">
-        <x:v>4264</x:v>
-      </x:c>
-      <x:c r="DB5" s="4" t="n">
-        <x:v>4631</x:v>
-      </x:c>
-      <x:c r="DC5" s="4" t="n">
-        <x:v>5460</x:v>
-      </x:c>
-      <x:c r="DD5" s="4" t="n">
-        <x:v>5861</x:v>
-      </x:c>
-      <x:c r="DE5" s="4" t="n">
-        <x:v>5715</x:v>
-      </x:c>
-      <x:c r="DF5" s="4" t="n">
-        <x:v>5601</x:v>
-      </x:c>
-      <x:c r="DG5" s="4" t="n">
-        <x:v>7263</x:v>
-      </x:c>
-      <x:c r="DH5" s="4" t="n">
-        <x:v>5670</x:v>
-      </x:c>
-      <x:c r="DI5" s="4" t="n">
-        <x:v>5900</x:v>
-      </x:c>
-      <x:c r="DJ5" s="4" t="n">
-        <x:v>5617</x:v>
-      </x:c>
-      <x:c r="DK5" s="4" t="n">
-        <x:v>9589</x:v>
-      </x:c>
-      <x:c r="DL5" s="4" t="n">
-        <x:v>7650</x:v>
-      </x:c>
-      <x:c r="DM5" s="4" t="n">
-        <x:v>7532</x:v>
-      </x:c>
-      <x:c r="DN5" s="4" t="n">
-        <x:v>6057</x:v>
-      </x:c>
-      <x:c r="DO5" s="4" t="n">
-        <x:v>5244</x:v>
-      </x:c>
-      <x:c r="DP5" s="4" t="n">
-        <x:v>5184</x:v>
-      </x:c>
-      <x:c r="DQ5" s="4" t="n">
-        <x:v>5686</x:v>
-      </x:c>
-      <x:c r="DR5" s="4" t="n">
-        <x:v>5273</x:v>
-      </x:c>
-      <x:c r="DS5" s="4" t="n">
-        <x:v>6494</x:v>
-      </x:c>
-      <x:c r="DT5" s="4" t="n">
-        <x:v>7210</x:v>
-      </x:c>
-      <x:c r="DU5" s="4" t="n">
-        <x:v>6852</x:v>
-      </x:c>
-      <x:c r="DV5" s="4" t="n">
-        <x:v>6639</x:v>
-      </x:c>
-      <x:c r="DW5" s="4" t="n">
-        <x:v>7541</x:v>
-      </x:c>
-      <x:c r="DX5" s="4" t="n">
-        <x:v>7613</x:v>
-      </x:c>
-      <x:c r="DY5" s="4" t="n">
-        <x:v>7324</x:v>
-      </x:c>
-      <x:c r="DZ5" s="4" t="n">
-        <x:v>7122</x:v>
-      </x:c>
-      <x:c r="EA5" s="4" t="n">
-        <x:v>7421</x:v>
-      </x:c>
-      <x:c r="EB5" s="4" t="n">
-        <x:v>7677</x:v>
-      </x:c>
-      <x:c r="EC5" s="4" t="n">
-        <x:v>6840</x:v>
-      </x:c>
-      <x:c r="ED5" s="4" t="n">
-        <x:v>6547</x:v>
-      </x:c>
-      <x:c r="EE5" s="4" t="n">
-        <x:v>7694</x:v>
-      </x:c>
-      <x:c r="EF5" s="4" t="n">
-        <x:v>6692</x:v>
-      </x:c>
-      <x:c r="EG5" s="4" t="n">
-        <x:v>6919</x:v>
-      </x:c>
-      <x:c r="EH5" s="4" t="n">
-        <x:v>6898</x:v>
-      </x:c>
-      <x:c r="EI5" s="4" t="n">
-        <x:v>6464</x:v>
-      </x:c>
-      <x:c r="EJ5" s="4" t="n">
-        <x:v>6873</x:v>
-      </x:c>
-      <x:c r="EK5" s="4" t="n">
-        <x:v>6198</x:v>
-      </x:c>
-      <x:c r="EL5" s="4" t="n">
-        <x:v>5796</x:v>
-      </x:c>
-      <x:c r="EM5" s="4" t="n">
-        <x:v>8598</x:v>
-      </x:c>
-      <x:c r="EN5" s="4" t="n">
-        <x:v>7175</x:v>
-      </x:c>
-      <x:c r="EO5" s="4" t="n">
-        <x:v>6772</x:v>
-      </x:c>
-      <x:c r="EP5" s="4" t="n">
-        <x:v>6598</x:v>
-      </x:c>
-      <x:c r="EQ5" s="4" t="n">
-        <x:v>8536</x:v>
-      </x:c>
-      <x:c r="ER5" s="4" t="n">
-        <x:v>9001</x:v>
-      </x:c>
-      <x:c r="ES5" s="4" t="n">
-        <x:v>8151</x:v>
-      </x:c>
-      <x:c r="ET5" s="4" t="n">
-        <x:v>7236</x:v>
-      </x:c>
-      <x:c r="EU5" s="4" t="n">
-        <x:v>10866</x:v>
-      </x:c>
-      <x:c r="EV5" s="4" t="n">
-        <x:v>8487</x:v>
-      </x:c>
-      <x:c r="EW5" s="4" t="n">
-        <x:v>7564</x:v>
-      </x:c>
-      <x:c r="EX5" s="4" t="n">
-        <x:v>6617</x:v>
-      </x:c>
-      <x:c r="EY5" s="4" t="n">
-        <x:v>10128</x:v>
-      </x:c>
-      <x:c r="EZ5" s="4" t="n">
-        <x:v>9445</x:v>
-      </x:c>
-      <x:c r="FA5" s="4" t="n">
-        <x:v>7444</x:v>
-      </x:c>
-      <x:c r="FB5" s="4" t="n">
-        <x:v>7861</x:v>
-      </x:c>
-      <x:c r="FC5" s="4" t="n">
-        <x:v>8505</x:v>
-      </x:c>
-      <x:c r="FD5" s="4" t="n">
-        <x:v>7873</x:v>
-      </x:c>
-      <x:c r="FE5" s="4" t="n">
-        <x:v>6844</x:v>
-      </x:c>
-      <x:c r="FF5" s="4" t="n">
-        <x:v>6845</x:v>
-      </x:c>
-      <x:c r="FG5" s="4" t="n">
-        <x:v>8736</x:v>
-      </x:c>
-      <x:c r="FH5" s="4" t="n">
-        <x:v>6690</x:v>
-      </x:c>
-      <x:c r="FI5" s="4" t="n">
-        <x:v>6792</x:v>
-      </x:c>
-      <x:c r="FJ5" s="4" t="n">
-        <x:v>6046</x:v>
-      </x:c>
-      <x:c r="FK5" s="4" t="n">
-        <x:v>9092</x:v>
-      </x:c>
-      <x:c r="FL5" s="4" t="n">
-        <x:v>8376</x:v>
-      </x:c>
-      <x:c r="FM5" s="4" t="n">
-        <x:v>6905</x:v>
-      </x:c>
-      <x:c r="FN5" s="4" t="n">
-        <x:v>6996</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:170">
-      <x:c r="A7" s="5" t="s">
+    </x:row>
+    <x:row r="46" spans="1:171">
+      <x:c r="A46" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:171">
+      <x:c r="A47" s="0" t="s">
         <x:v>173</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:170">
-      <x:c r="A8" s="5" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:170">
-      <x:c r="A9" s="5" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:170">
-      <x:c r="A11" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:170">
-      <x:c r="A12" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:170">
-      <x:c r="A13" s="0" t="s">
+    <x:row r="48" spans="1:171">
+      <x:c r="A48" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:171">
+      <x:c r="A51" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:170">
-      <x:c r="A14" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:170">
-      <x:c r="A15" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:170">
-      <x:c r="A17" s="0" t="s">
+    <x:row r="52" spans="1:171">
+      <x:c r="A52" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:171">
+      <x:c r="A53" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:170">
-      <x:c r="A18" s="0" t="s">
-        <x:v>181</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:170">
-      <x:c r="A20" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:170">
-      <x:c r="A21" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:170">
-      <x:c r="A22" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:170">
-      <x:c r="A23" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:170">
-      <x:c r="A24" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:170">
-      <x:c r="A26" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:170">
-      <x:c r="A27" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:170">
-      <x:c r="A28" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:170">
-      <x:c r="A33" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:170">
-      <x:c r="A34" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:170">
-      <x:c r="A35" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:170">
-      <x:c r="A36" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:170">
-      <x:c r="A37" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:170">
-      <x:c r="A38" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:170">
-      <x:c r="A39" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:170">
-      <x:c r="A40" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:170">
-      <x:c r="A41" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:170">
-      <x:c r="A42" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:170">
-      <x:c r="A44" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:170">
-      <x:c r="A45" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:170">
-      <x:c r="A46" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:170">
-      <x:c r="A47" s="0" t="s">
-        <x:v>172</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:170">
-      <x:c r="A48" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:170">
-      <x:c r="A51" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:170">
-      <x:c r="A52" s="0" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:170">
-      <x:c r="A53" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:170">
+    <x:row r="54" spans="1:171">
       <x:c r="A54" s="0" t="s">
-        <x:v>195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:170">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:171">
       <x:c r="A58" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:170">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:171">
       <x:c r="A60" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:170">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:171">
       <x:c r="A61" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:170">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:171">
       <x:c r="A63" s="0" t="s">
-        <x:v>199</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:170">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:171">
       <x:c r="A64" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
-    <x:mergeCell ref="A7:FN7"/>
-    <x:mergeCell ref="A8:FN8"/>
-    <x:mergeCell ref="A9:FN9"/>
+    <x:mergeCell ref="A7:FO7"/>
+    <x:mergeCell ref="A8:FO8"/>
+    <x:mergeCell ref="A9:FO9"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
